--- a/Characters/Stats.xlsx
+++ b/Characters/Stats.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="90">
   <si>
     <t>Class</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t>Brawler</t>
+  </si>
+  <si>
+    <t>Str 2 or Agi 2</t>
+  </si>
+  <si>
+    <t>Agi 2 or Str 2</t>
   </si>
   <si>
     <t>Dodge: May have Combat re rolled</t>
@@ -437,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -528,13 +534,22 @@
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1188,7 +1203,6 @@
         <v>20</v>
       </c>
       <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="9" t="str">
         <f t="shared" si="1"/>
@@ -1288,16 +1302,16 @@
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="F17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="G17" s="25" t="s">
         <v>24</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>74</v>
       </c>
       <c r="H17" s="27" t="s">
         <v>53</v>
@@ -1319,20 +1333,20 @@
         <v>2.0</v>
       </c>
       <c r="C18" s="19"/>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>23</v>
+      <c r="F18" s="33" t="s">
+        <v>77</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I18" s="27" t="s">
         <v>14</v>
@@ -1344,29 +1358,29 @@
       <c r="N18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="32" t="s">
-        <v>77</v>
+      <c r="A19" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="B19" s="23">
         <v>2.0</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>33</v>
+        <v>81</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>70</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="25" t="s">
         <v>19</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>20</v>
       </c>
       <c r="I19" s="27" t="s">
         <v>20</v>
@@ -1379,21 +1393,21 @@
     </row>
     <row r="20">
       <c r="A20" s="22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B20" s="23">
         <v>1.0</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="31" t="s">
         <v>51</v>
       </c>
       <c r="G20" s="24" t="s">
@@ -1413,16 +1427,16 @@
     </row>
     <row r="21">
       <c r="A21" s="22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B21" s="23">
         <v>3.0</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>87</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>23</v>
@@ -1447,11 +1461,11 @@
     </row>
     <row r="22">
       <c r="A22" s="22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1466,27 +1480,27 @@
       <c r="N22" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:M22">
+  <conditionalFormatting sqref="A1:J22 K1:K13 L1:M22 K15:K22">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Dodge">
       <formula>NOT(ISERROR(SEARCH(("Dodge"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M22">
+  <conditionalFormatting sqref="A1:J22 K1:K13 L1:M22 K15:K22">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Mag">
       <formula>NOT(ISERROR(SEARCH(("Mag"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M22">
+  <conditionalFormatting sqref="A1:J22 K1:K13 L1:M22 K15:K22">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Str">
       <formula>NOT(ISERROR(SEARCH(("Str"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M22">
+  <conditionalFormatting sqref="A1:J22 K1:K13 L1:M22 K15:K22">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Agi">
       <formula>NOT(ISERROR(SEARCH(("Agi"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M22">
+  <conditionalFormatting sqref="A1:J22 K1:K13 L1:M22 K15:K22">
     <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Miss">
       <formula>NOT(ISERROR(SEARCH(("Miss"),(A1))))</formula>
     </cfRule>
